--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -316,9 +316,6 @@
     <t>m5 m14</t>
   </si>
   <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
     <t>UniUniPromiscuous</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>r2 r5</t>
   </si>
   <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
     <t>OrdPromiscCompInhibIndep</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>r3 r6</t>
   </si>
   <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
     <t>orderedBiBi</t>
   </si>
   <si>
@@ -358,16 +349,7 @@
     <t>m9 m13</t>
   </si>
   <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
     <t>massAction</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -509,7 +491,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="L2:O21 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,7 +624,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:O21 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +770,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,7 +993,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,17 +1313,17 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -1406,34 +1388,28 @@
       <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,16 +1417,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1460,9 +1436,6 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,22 +1443,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,25 +1463,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,16 +1486,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1538,9 +1505,6 @@
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1562,16 +1526,13 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1540,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,16 +1554,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,16 +1568,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,16 +1582,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,16 +1596,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1624,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,7 +2561,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:O21 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3062,7 +3008,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:O21 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3288,7 +3234,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3385,7 +3331,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3517,7 +3463,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3649,7 +3595,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3830,7 +3776,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:O21 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
   </si>
   <si>
     <t>enzyme/rxn</t>
@@ -490,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="L2:O21 B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,18 +615,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:O21 A8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -642,14 +636,8 @@
       <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -659,14 +647,8 @@
       <c r="C2" s="0" t="n">
         <v>1.10350536706976</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -676,14 +658,8 @@
       <c r="C3" s="0" t="n">
         <v>2.12397436954052E-007</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -693,14 +669,8 @@
       <c r="C4" s="0" t="n">
         <v>3.18755368558865E-009</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -710,14 +680,8 @@
       <c r="C5" s="0" t="n">
         <v>3.33787220043099E-011</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -727,14 +691,8 @@
       <c r="C6" s="0" t="n">
         <v>2.00430304742416E-005</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -742,12 +700,6 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>6.60284204552005E-011</v>
       </c>
     </row>
@@ -770,7 +722,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,16 +732,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +945,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,13 +958,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,57 +1265,57 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:O21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,13 +1323,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1394,16 +1346,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1417,16 +1369,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1443,13 +1395,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1463,16 +1415,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1486,16 +1438,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1512,7 +1464,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1526,7 +1478,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1540,7 +1492,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1554,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1568,7 +1520,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1582,7 +1534,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1596,7 +1548,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1624,7 +1576,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2561,7 +2513,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:O21 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3008,7 +2960,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:O21 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3234,7 +3186,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3331,7 +3283,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3463,7 +3415,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:O21 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3595,7 +3547,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:O21 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3776,7 +3728,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:O21 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -484,7 +484,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1265,17 +1265,17 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,15 +492,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,62 +536,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,21 +599,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,29 +636,29 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -650,7 +669,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -661,7 +680,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -672,7 +691,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -683,7 +702,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -694,7 +713,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -706,7 +725,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -721,32 +740,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -760,7 +779,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -774,7 +793,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -788,7 +807,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -802,7 +821,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -816,7 +835,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -830,7 +849,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -844,7 +863,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +877,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +891,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +905,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +919,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +933,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -929,7 +948,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -944,32 +963,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -983,7 +1002,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -997,7 +1016,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +1030,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +1044,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1039,7 +1058,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1053,7 +1072,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1067,7 +1086,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1081,7 +1100,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1095,7 +1114,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1109,7 +1128,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1123,7 +1142,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1137,7 +1156,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1151,7 +1170,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1165,7 +1184,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1179,7 +1198,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1193,7 +1212,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1207,7 +1226,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1221,7 +1240,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1235,7 +1254,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1250,7 +1269,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1265,74 +1284,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1343,19 +1362,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1366,22 +1385,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1392,16 +1411,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1412,19 +1431,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1435,22 +1454,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1461,10 +1480,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1475,10 +1494,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1489,10 +1508,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1503,10 +1522,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1517,10 +1536,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1531,10 +1550,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1545,10 +1564,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1579,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1575,83 +1594,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1716,7 +1735,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1781,7 +1800,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1846,7 +1865,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1911,7 +1930,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1995,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2041,7 +2060,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2106,7 +2125,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2171,7 +2190,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2236,7 +2255,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2301,7 +2320,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2366,7 +2385,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2431,7 +2450,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2497,7 +2516,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2512,41 +2531,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2563,10 +2582,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2583,10 +2602,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2603,10 +2622,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2623,10 +2642,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2643,10 +2662,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2663,10 +2682,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2683,10 +2702,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2703,10 +2722,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2723,10 +2742,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2743,10 +2762,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2763,10 +2782,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2783,10 +2802,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2822,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2823,10 +2842,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2843,10 +2862,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2863,10 +2882,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2883,10 +2902,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2903,10 +2922,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2923,10 +2942,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2944,7 +2963,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2959,38 +2978,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3001,10 +3020,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3015,10 +3034,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3029,10 +3048,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3043,10 +3062,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3057,10 +3076,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3071,10 +3090,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3085,10 +3104,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3099,10 +3118,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3113,10 +3132,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3127,10 +3146,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3141,10 +3160,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3155,10 +3174,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3170,7 +3189,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3185,89 +3204,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3282,124 +3301,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3414,124 +3433,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3546,29 +3565,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3579,7 +3598,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3590,7 +3609,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3601,7 +3620,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3612,7 +3631,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3623,7 +3642,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3634,7 +3653,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3645,7 +3664,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3656,7 +3675,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3667,7 +3686,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3678,7 +3697,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3708,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3719,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3712,7 +3731,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3727,29 +3746,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3760,7 +3779,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3771,7 +3790,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3782,7 +3801,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3793,7 +3812,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3823,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3815,7 +3834,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3826,7 +3845,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3837,7 +3856,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3848,7 +3867,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3859,7 +3878,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3870,7 +3889,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3881,7 +3900,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3892,7 +3911,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3903,7 +3922,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3914,7 +3933,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3944,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3955,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3947,7 +3966,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3958,7 +3977,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3970,7 +3989,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -494,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,13 +636,16 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +667,8 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,7 +679,8 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +691,8 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +703,8 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +715,8 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +727,8 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1300,7 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,24 +494,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -588,6 +570,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -597,27 +582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -636,8 +603,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="B3 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,18 +617,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -673,7 +640,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +652,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -697,7 +664,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -709,7 +676,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -721,7 +688,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -750,7 +717,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,21 +727,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -788,7 +755,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -802,7 +769,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -816,7 +783,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -830,7 +797,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -844,7 +811,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +825,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +839,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +853,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +867,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +881,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -928,7 +895,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -942,7 +909,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -973,7 +940,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,21 +950,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1011,7 +978,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +992,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1039,7 +1006,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1053,7 +1020,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1067,7 +1034,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1081,7 +1048,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1095,7 +1062,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1109,7 +1076,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1123,7 +1090,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1137,7 +1104,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1151,7 +1118,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1165,7 +1132,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1179,7 +1146,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1193,7 +1160,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1207,7 +1174,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1221,7 +1188,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1235,7 +1202,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1249,7 +1216,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1263,7 +1230,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1294,13 +1261,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="B3 C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1310,57 +1277,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1371,19 +1338,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1394,22 +1361,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1420,16 +1387,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1440,19 +1407,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1463,22 +1430,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1489,10 +1456,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1503,10 +1470,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1517,10 +1484,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1531,10 +1498,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1545,10 +1512,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1559,10 +1526,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1573,10 +1540,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1604,7 +1571,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1614,72 +1581,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1744,7 +1711,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1809,7 +1776,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1874,7 +1841,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1939,7 +1906,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2004,7 +1971,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2069,7 +2036,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2134,7 +2101,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2199,7 +2166,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2264,7 +2231,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2329,7 +2296,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2394,7 +2361,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2459,7 +2426,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2538,434 +2505,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,214 +2827,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3015,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3224,72 +3025,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3112,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3321,107 +3122,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3244,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3453,107 +3254,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3376,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3585,18 +3386,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3607,7 +3408,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3618,7 +3419,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3629,7 +3430,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3640,7 +3441,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3651,7 +3452,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3662,7 +3463,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3673,7 +3474,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3684,7 +3485,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3695,7 +3496,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3706,7 +3507,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3717,7 +3518,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3728,7 +3529,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3756,7 +3557,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3766,18 +3567,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3788,7 +3589,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3799,7 +3600,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3810,7 +3611,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3821,7 +3622,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3832,7 +3633,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3843,7 +3644,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3854,7 +3655,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3865,7 +3666,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3876,7 +3677,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3887,7 +3688,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3898,7 +3699,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3909,7 +3710,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3920,7 +3721,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3931,7 +3732,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3942,7 +3743,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3953,7 +3754,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3964,7 +3765,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3975,7 +3776,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3986,7 +3787,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,7 +601,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="B3 F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,13 +614,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +714,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,16 +724,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +937,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -950,16 +947,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,7 +1258,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="B3 C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1277,40 +1274,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1341,16 +1338,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1364,16 +1361,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1390,13 +1387,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1410,16 +1407,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1433,16 +1430,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1459,7 +1456,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1473,7 +1470,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1498,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1529,7 +1526,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1543,7 +1540,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1571,7 +1568,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2505,16 +2502,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,21 +2524,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2549,13 +2540,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,13 +2551,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2577,13 +2562,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2591,111 +2573,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,13 +2661,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2717,13 +2672,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,13 +2683,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,13 +2694,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,13 +2705,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2773,13 +2716,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2787,13 +2727,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2801,13 +2738,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2830,7 +2764,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,20 +2778,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2868,7 +2802,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2879,7 +2813,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2890,7 +2824,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2901,7 +2835,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2912,7 +2846,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2923,7 +2857,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2934,7 +2868,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2945,7 +2879,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2956,7 +2890,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2967,7 +2901,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2978,7 +2912,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2989,7 +2923,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3015,7 +2949,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3112,7 +3046,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3122,7 +3056,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3178,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3254,7 +3188,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3310,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3386,13 +3320,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3491,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3567,13 +3501,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -598,119 +597,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -929,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1250,7 +1136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2504,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2946,9 +2832,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2959,72 +2845,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3175,138 +3096,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3483,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3739,4 +3528,117 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,64 +535,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -600,7 +627,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,21 +637,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -638,7 +665,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -652,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -666,7 +693,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -680,7 +707,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -694,7 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -708,7 +735,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -722,7 +749,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -736,7 +763,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -750,7 +777,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -764,7 +791,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -778,7 +805,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +819,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -823,7 +850,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,21 +860,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -861,7 +888,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +902,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +916,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +930,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -917,7 +944,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -931,7 +958,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -945,7 +972,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -959,7 +986,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -973,7 +1000,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -987,7 +1014,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1001,7 +1028,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1015,7 +1042,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +1056,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1043,7 +1070,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1071,7 +1098,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1085,7 +1112,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1099,7 +1126,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1113,7 +1140,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1144,7 +1171,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="A6:B7 C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,57 +1187,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1221,19 +1248,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1244,22 +1271,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1270,16 +1297,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1290,19 +1317,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1313,22 +1340,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1339,10 +1366,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1353,10 +1380,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1367,10 +1394,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1381,10 +1408,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1395,10 +1422,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1409,10 +1436,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1423,10 +1450,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1454,7 +1481,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,72 +1491,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1594,7 +1621,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1659,7 +1686,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1724,7 +1751,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1789,7 +1816,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1854,7 +1881,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1919,7 +1946,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1984,7 +2011,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2049,7 +2076,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2114,7 +2141,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2179,7 +2206,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2244,7 +2271,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2309,7 +2336,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2391,7 +2418,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2402,21 +2429,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2424,10 +2451,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2435,10 +2462,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2446,10 +2473,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2457,10 +2484,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2468,10 +2495,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2479,10 +2506,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2490,10 +2517,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2501,10 +2528,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2512,10 +2539,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2523,10 +2550,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2534,10 +2561,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2545,10 +2572,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2556,10 +2583,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2567,10 +2594,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2578,10 +2605,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2589,10 +2616,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2600,10 +2627,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2611,10 +2638,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2622,10 +2649,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2650,7 +2677,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2661,24 +2688,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2686,10 +2713,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2697,10 +2724,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2708,10 +2735,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2719,10 +2746,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2730,10 +2757,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2741,10 +2768,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2752,10 +2779,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2763,10 +2790,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2774,10 +2801,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2785,10 +2812,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2796,10 +2823,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2807,10 +2834,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2834,8 +2861,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2845,107 +2872,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +2994,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2977,107 +3004,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3126,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,18 +3136,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3131,7 +3158,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3142,7 +3169,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3153,7 +3180,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3164,7 +3191,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3175,7 +3202,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3186,7 +3213,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3197,7 +3224,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3208,7 +3235,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3219,7 +3246,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3230,7 +3257,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3241,7 +3268,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3252,7 +3279,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3280,7 +3307,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3290,18 +3317,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3312,7 +3339,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3323,7 +3350,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3334,7 +3361,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3345,7 +3372,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3356,7 +3383,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3367,7 +3394,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3378,7 +3405,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3389,7 +3416,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3400,7 +3427,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3411,7 +3438,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3422,7 +3449,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3433,7 +3460,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3444,7 +3471,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3455,7 +3482,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3466,7 +3493,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3477,7 +3504,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3488,7 +3515,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3499,7 +3526,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3510,7 +3537,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3538,7 +3565,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="A6:B7 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,18 +3578,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3574,7 +3601,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3586,7 +3613,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3598,7 +3625,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3610,7 +3637,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3622,7 +3649,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
